--- a/data/trans_camb/P16A13-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Clase-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>1.13064517040573</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.086998822551392</v>
+        <v>3.086998822551391</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.302948750765909</v>
+        <v>-1.457162480446281</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.764635292509425</v>
+        <v>-1.394495674613554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9927697567886631</v>
+        <v>1.329267775752135</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.088636538561747</v>
+        <v>1.096256943623098</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.9652713706321628</v>
+        <v>-1.162872608013012</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5190433559767886</v>
+        <v>0.4432355306938159</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4024339556457219</v>
+        <v>0.1709156262147771</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.8892959490924274</v>
+        <v>-0.7034059048821791</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.436319099233554</v>
+        <v>1.519661306089797</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.55250001762759</v>
+        <v>4.179053978640836</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.705398596002127</v>
+        <v>4.011396296945813</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.44070879999681</v>
+        <v>6.497611428519784</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.654937310784082</v>
+        <v>7.781934014424547</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.177100977207685</v>
+        <v>4.158085717657527</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.579973337371936</v>
+        <v>4.513119163925545</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.568725074381446</v>
+        <v>4.415204442442453</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.971472333524397</v>
+        <v>3.143521492880736</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.701971798232147</v>
+        <v>4.78790144861249</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.368637912115018</v>
+        <v>-0.4024776501106263</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4095497467918191</v>
+        <v>-0.340855283687283</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1782151002416786</v>
+        <v>0.22404096251833</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2302761054150386</v>
+        <v>0.1527071861051872</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4407896702168428</v>
+        <v>-0.4926605263495601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04562681697260886</v>
+        <v>0.0008982677237943555</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0001969310012981248</v>
+        <v>0.03383883204604875</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2338063956895204</v>
+        <v>-0.2207944045512351</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3358045243177222</v>
+        <v>0.3778750142728426</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.088659539037073</v>
+        <v>1.839114550834351</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.85984841272081</v>
+        <v>1.964592208133663</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.361434318652079</v>
+        <v>3.890334072549602</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>7.908739487771244</v>
+        <v>8.507834865167064</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.318164254185491</v>
+        <v>5.051455875726852</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.07218805015692</v>
+        <v>5.09147269452277</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.35605412429113</v>
+        <v>2.369247956023159</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.543064181657276</v>
+        <v>1.634052744082926</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.532092106873498</v>
+        <v>2.701268279998802</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.027367259880857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.340121358329601</v>
+        <v>3.340121358329599</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.650034800232707</v>
@@ -878,7 +878,7 @@
         <v>1.129775729225327</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.525632250928861</v>
+        <v>2.52563225092886</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.634902399910257</v>
+        <v>-1.675733324031134</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.37393409832914</v>
+        <v>-1.624447710996584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6532257192575633</v>
+        <v>0.9137669456331124</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9427481364441744</v>
+        <v>-1.193091882559696</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.505422356188576</v>
+        <v>-1.420909940299279</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.7614421834410359</v>
+        <v>-0.6462384773999622</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.6988785182198315</v>
+        <v>-0.6111423053169051</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.6167515475586342</v>
+        <v>-0.6402557608275289</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6816120638896355</v>
+        <v>0.7407484406477531</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.538924732665046</v>
+        <v>3.558568581188375</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.661891364414835</v>
+        <v>3.720896659683282</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.62918627264635</v>
+        <v>5.691050329073732</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.151757429617956</v>
+        <v>4.983054497377727</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.488249964471313</v>
+        <v>4.247505180465693</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.870377861081832</v>
+        <v>4.129967130299836</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.270612756748688</v>
+        <v>3.277903554177443</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.188395837040789</v>
+        <v>3.144546791890348</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.278676106318684</v>
+        <v>4.198583819947968</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.4256571390525767</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.9515635452413629</v>
+        <v>0.9515635452413626</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5281380932064822</v>
+        <v>-0.5816529996795986</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4768378018532917</v>
+        <v>-0.5702508062085598</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1384948268814971</v>
+        <v>0.133459605474457</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3163816302478994</v>
+        <v>-0.3250934863137593</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4282091232559283</v>
+        <v>-0.3653237103752928</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2058344220049083</v>
+        <v>-0.1696051139190619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2629723310955953</v>
+        <v>-0.2082574815818965</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2142862142610804</v>
+        <v>-0.19020170485366</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1513100490561594</v>
+        <v>0.1747593294542152</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.043256389635146</v>
+        <v>2.588264863069575</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.093632869267936</v>
+        <v>2.676270271541519</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.981356504043585</v>
+        <v>4.93800977681411</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.622409702729439</v>
+        <v>2.831308361311782</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.363364045382468</v>
+        <v>2.385928848800461</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.099374118822492</v>
+        <v>2.289138248490436</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.76720684940643</v>
+        <v>1.737912639314672</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.691183478536086</v>
+        <v>1.721340653669646</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.386147008985072</v>
+        <v>2.47517607042519</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.7326227950302318</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.61392024064552</v>
+        <v>5.613920240645521</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.7055289589746723</v>
@@ -1092,7 +1092,7 @@
         <v>0.7837535212428276</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.857998433936812</v>
+        <v>5.857998433936813</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5570274964847073</v>
+        <v>-0.64042668278621</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.09741978154477</v>
+        <v>-1.155765279752301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.077602304097383</v>
+        <v>3.092730839879232</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.956324275388638</v>
+        <v>-5.677427264869046</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.095267787156632</v>
+        <v>-3.933303127035468</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.195075117474666</v>
+        <v>0.4770007392487512</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9167092825389295</v>
+        <v>-1.11053593853167</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.069576000944115</v>
+        <v>-1.225921362913997</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.681704845220626</v>
+        <v>3.730175097923379</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.229405354550472</v>
+        <v>3.346178007178785</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.752104504717365</v>
+        <v>2.894318249623382</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.627828023141433</v>
+        <v>8.651310359278577</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.401982121708615</v>
+        <v>3.065321019233623</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.457709145984911</v>
+        <v>6.852067822986244</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.05989547202174</v>
+        <v>10.30178382112291</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.762810299255724</v>
+        <v>2.664956319341773</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.057082734800516</v>
+        <v>2.930397489712681</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.220991632276174</v>
+        <v>8.324772757263863</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.3313352791455801</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.538946157085583</v>
+        <v>2.538946157085584</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1325914267674356</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2226005502214391</v>
+        <v>-0.3037144526022336</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4153059693047026</v>
+        <v>-0.4041531353873424</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.8905292242082646</v>
+        <v>0.9473524856945965</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6509268017744682</v>
+        <v>-0.7086665939444438</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5911521573730099</v>
+        <v>-0.5669972427136994</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06278466511452564</v>
+        <v>-0.000672174488615484</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2731042766789924</v>
+        <v>-0.3141048561873402</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3268933020316497</v>
+        <v>-0.3549432308538644</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.8504754699603797</v>
+        <v>0.9155120151001616</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.513895470228372</v>
+        <v>2.40892174935696</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.926447214988136</v>
+        <v>2.028448471778702</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>6.321435733355656</v>
+        <v>6.301511756074763</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.42679837570866</v>
+        <v>1.046283840885054</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.926114501125841</v>
+        <v>2.419685099301351</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.640522343948025</v>
+        <v>3.75406831488137</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.310880434218432</v>
+        <v>1.309329311162373</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.404411480258876</v>
+        <v>1.325185487374145</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.950263416537196</v>
+        <v>4.063963276567231</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-0.2782046176590974</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.775268579796176</v>
+        <v>3.775268579796177</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5592580076701289</v>
+        <v>0.5380224044983783</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.301684981634013</v>
+        <v>-2.187055021705646</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.020823372314348</v>
+        <v>1.920083225343424</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3725837289838976</v>
+        <v>-0.4465562548654124</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.099870943691062</v>
+        <v>-0.9671678855034621</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.172223845025389</v>
+        <v>2.223914982167026</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6573427058694437</v>
+        <v>0.8411177882322731</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.371296978157764</v>
+        <v>-1.327109567687454</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.518284994373901</v>
+        <v>2.461494458452485</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.97339537472046</v>
+        <v>3.914823364198087</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.332512016612477</v>
+        <v>0.3151736531890793</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.258021204281971</v>
+        <v>5.27120896303204</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.423404967761883</v>
+        <v>3.530067388649333</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.680428936697727</v>
+        <v>2.787293121875217</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.788956077557149</v>
+        <v>5.935922628415486</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.320306984969445</v>
+        <v>3.259450683504854</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.797149080470154</v>
+        <v>0.7985652826941128</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.926912712403938</v>
+        <v>4.891841311147828</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.0919508406517717</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.247783457080684</v>
+        <v>1.247783457080685</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1325522612496648</v>
+        <v>0.1290088791644693</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5849906882443136</v>
+        <v>-0.5927473475583109</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4898462360885599</v>
+        <v>0.4829235872145112</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.124899347834082</v>
+        <v>-0.1690431358834668</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3037831707081937</v>
+        <v>-0.3063741638762815</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4964711245076746</v>
+        <v>0.5335796038481992</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1904625972148231</v>
+        <v>0.2085863287513498</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3800160897043257</v>
+        <v>-0.3739362113617506</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6817509590869003</v>
+        <v>0.6923358692582363</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.544363384451086</v>
+        <v>1.572536780408822</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1931158441830596</v>
+        <v>0.1432355644840078</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.145571580318126</v>
+        <v>2.196763133103582</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.634196501425348</v>
+        <v>1.71432555634325</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.214543482759881</v>
+        <v>1.356969181916395</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.8430587782989</v>
+        <v>2.977403607781825</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.325375467554825</v>
+        <v>1.282952635521573</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3118263971832851</v>
+        <v>0.3195144189921619</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.956155479320523</v>
+        <v>2.063072069589688</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>1.110119251875363</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.949496589089887</v>
+        <v>2.949496589089885</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.715689937360246</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.866876588764528</v>
+        <v>-1.916329898882124</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.386710277143899</v>
+        <v>-1.450783724538393</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2626862739811845</v>
+        <v>0.3499590513847681</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.50483204284822</v>
+        <v>1.46612493968844</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.470233687466469</v>
+        <v>-1.54719268598292</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.896650774852914</v>
+        <v>7.028254472147376</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.759402377361418</v>
+        <v>0.7533662619414485</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.077260412630172</v>
+        <v>-0.721869456593129</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.976753073617248</v>
+        <v>4.944367035939923</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.173076279429657</v>
+        <v>3.248227790536931</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.721870350272299</v>
+        <v>3.596526939279734</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.918055191070602</v>
+        <v>5.842701961185355</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.076442091937559</v>
+        <v>6.107916769725963</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.57336503098752</v>
+        <v>2.497495544265429</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.44042283725263</v>
+        <v>11.22457131615779</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.53122181395011</v>
+        <v>4.269254777466071</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.268093226997395</v>
+        <v>2.21760978470402</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.224390235886805</v>
+        <v>8.344812207161583</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3508704180264789</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.932234171629188</v>
+        <v>0.9322341716291873</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>1.208512121867216</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4496564018862972</v>
+        <v>-0.4379332864789943</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3089046240261233</v>
+        <v>-0.3297382974850067</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.003065626992213956</v>
+        <v>0.03436242744074477</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3258426839993628</v>
+        <v>0.2668895179280231</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3802232980892383</v>
+        <v>-0.3893077129901555</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.498235316520613</v>
+        <v>1.597476485430431</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1649795321216236</v>
+        <v>0.1851509543010397</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2647310145687162</v>
+        <v>-0.1911927525672631</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.143653420126574</v>
+        <v>1.184544802716677</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.885903717927537</v>
+        <v>1.7442601242954</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.091814333492672</v>
+        <v>2.173502369741208</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.565005438431967</v>
+        <v>3.27991480948524</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.881196726193794</v>
+        <v>2.909063657008498</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.187703834244856</v>
+        <v>1.227880521900312</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>5.78551426495772</v>
+        <v>5.87290407514135</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.043750928460116</v>
+        <v>1.86132392402403</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9840935638787291</v>
+        <v>0.95911186142161</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.807637591698102</v>
+        <v>3.741608376374278</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-0.3230420185265297</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.782127723125824</v>
+        <v>0.7821277231258243</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0.6476990511455178</v>
@@ -1734,7 +1734,7 @@
         <v>-0.0920069213331827</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>4.216822270911951</v>
+        <v>4.216822270911949</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.6660433639478235</v>
+        <v>-0.3859281008026979</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.467592571855822</v>
+        <v>-1.438769184158389</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.6014979931452554</v>
+        <v>-0.7140606002327392</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.09838021319968</v>
+        <v>-0.9594019220338975</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.606544694765584</v>
+        <v>-1.592008414241385</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>3.386828660987723</v>
+        <v>3.47960445789928</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.8889848715302215</v>
+        <v>-0.8727067637469218</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.555285310571513</v>
+        <v>-1.588226491688741</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.63506310785513</v>
+        <v>2.644498547739454</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.697431036448287</v>
+        <v>3.986515022670366</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.7908622102667422</v>
+        <v>0.8319971870038954</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.867692367012343</v>
+        <v>2.479868994162923</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.510774430600494</v>
+        <v>2.475108946754756</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.829300800907353</v>
+        <v>1.915079777874452</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.426708008082612</v>
+        <v>7.387981259595276</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.254025791976162</v>
+        <v>2.183634978893608</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.353093516277364</v>
+        <v>1.409660492335282</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.768805505712727</v>
+        <v>5.80600178872274</v>
       </c>
     </row>
     <row r="37">
@@ -1851,26 +1851,24 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
-      <c r="E38" s="6" t="n">
-        <v>-0.7495871659232455</v>
-      </c>
+      <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.1991712236177362</v>
+        <v>-0.1928116085432193</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.308718253366569</v>
+        <v>-0.2995606169077404</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.610066415935395</v>
+        <v>0.6292135834192124</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1854902118323226</v>
+        <v>-0.2073548455360972</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3399702007935231</v>
+        <v>-0.3639828579967712</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.5811409492073523</v>
+        <v>0.5746377552874297</v>
       </c>
     </row>
     <row r="39">
@@ -1884,22 +1882,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.6476223762553925</v>
+        <v>0.6626838647886153</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4666544182771161</v>
+        <v>0.5054350983608076</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.931616432587587</v>
+        <v>1.964780457350228</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7438523015848899</v>
+        <v>0.6709385164418361</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4331422345827156</v>
+        <v>0.4542903929319904</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.851192773973063</v>
+        <v>1.836025283944648</v>
       </c>
     </row>
     <row r="40">
@@ -1920,7 +1918,7 @@
         <v>0.2433870091166097</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3.590707233410154</v>
+        <v>3.590707233410153</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>1.747661117379794</v>
@@ -1949,31 +1947,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.586837577306124</v>
+        <v>0.5573973155858278</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.5876768098477639</v>
+        <v>-0.5767416052569896</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.692308002143607</v>
+        <v>2.676583986053406</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.7238718734006383</v>
+        <v>0.7216404258026127</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.4684179807522753</v>
+        <v>-0.4258584369592328</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.933957230328118</v>
+        <v>3.890859117809416</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.9067495192878438</v>
+        <v>0.9230935545594701</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.2786034850102682</v>
+        <v>-0.2723630049512206</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.63696828294245</v>
+        <v>3.599020592342435</v>
       </c>
     </row>
     <row r="42">
@@ -1984,31 +1982,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.471729435518318</v>
+        <v>2.439369023110071</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.113750946986481</v>
+        <v>1.016203481107059</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.696447006508008</v>
+        <v>4.546419157204757</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.732317179720328</v>
+        <v>2.70471667113038</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.470321254641058</v>
+        <v>1.340717140157157</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.874433088488394</v>
+        <v>5.750762370881068</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.284113457538065</v>
+        <v>2.338861264590598</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.008489757228592</v>
+        <v>0.9541806782105583</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.891646393885805</v>
+        <v>4.91435945781233</v>
       </c>
     </row>
     <row r="43">
@@ -2054,31 +2052,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1953497770690545</v>
+        <v>0.176705315633686</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.194990294692474</v>
+        <v>-0.1923505325399865</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.8617954837323083</v>
+        <v>0.8416638874175406</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1774201913993587</v>
+        <v>0.1744240839220405</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1099683905803388</v>
+        <v>-0.106114030269619</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9570541911561813</v>
+        <v>0.9288528156532293</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2503618858334864</v>
+        <v>0.2559812438729396</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.08255356522210441</v>
+        <v>-0.07774867949158426</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.03078754330258</v>
+        <v>1.014950652166037</v>
       </c>
     </row>
     <row r="45">
@@ -2089,31 +2087,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.07147707050677</v>
+        <v>1.074300170334475</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5221937214467127</v>
+        <v>0.4514995818077256</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.099937478053516</v>
+        <v>2.041420436174244</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8827339900401602</v>
+        <v>0.8510450617503527</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.463642739730394</v>
+        <v>0.4187147810169491</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.907115937521325</v>
+        <v>1.832983627886336</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8075046588276684</v>
+        <v>0.8102759154339302</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3620444624452439</v>
+        <v>0.3370654447347243</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.72125677040427</v>
+        <v>1.719570950448015</v>
       </c>
     </row>
     <row r="46">
